--- a/com.sevenmart/src/main/resources/ExcelFiles/Deliveryboy.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/Deliveryboy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparnarajesh\eclipse-workspace\com.sevenmart\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparnarajesh\git\repository2\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A10152-B6E7-4E0D-9301-EE314252F5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69EA8C2-416D-4E6F-9240-5DAF0FD9577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B422E088-F683-4015-84B0-621897E36193}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B422E088-F683-4015-84B0-621897E36193}"/>
   </bookViews>
   <sheets>
     <sheet name="deliveryBoyProfileDetails" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Aparna</t>
-  </si>
-  <si>
-    <t>Gopi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>aparna@gmail.com</t>
   </si>
@@ -59,16 +53,40 @@
     <t>vavf</t>
   </si>
   <si>
+    <t>asasa</t>
+  </si>
+  <si>
+    <t>Remya</t>
+  </si>
+  <si>
+    <t>Aswathi</t>
+  </si>
+  <si>
+    <t>akkku</t>
+  </si>
+  <si>
+    <t>Shiju</t>
+  </si>
+  <si>
+    <t>sswww</t>
+  </si>
+  <si>
     <t>apps</t>
   </si>
   <si>
-    <t>Gopiii</t>
-  </si>
-  <si>
-    <t>asasa</t>
-  </si>
-  <si>
-    <t>sasa</t>
+    <t>dfkkkk</t>
+  </si>
+  <si>
+    <t>sheela</t>
+  </si>
+  <si>
+    <t>sdeef</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -433,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7498E19B-60C7-47AA-A0E7-6C0C0027A80B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,39 +462,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C1">
         <v>2323</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>3141</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -493,14 +511,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5D1854-2789-421B-9E32-E6617BC3A87D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/com.sevenmart/src/main/resources/ExcelFiles/Deliveryboy.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/Deliveryboy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparnarajesh\git\repository2\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69EA8C2-416D-4E6F-9240-5DAF0FD9577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1C127C-46EF-4791-A7F3-E8412392C257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B422E088-F683-4015-84B0-621897E36193}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B422E088-F683-4015-84B0-621897E36193}"/>
   </bookViews>
   <sheets>
     <sheet name="deliveryBoyProfileDetails" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>aparna@gmail.com</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Aswathi</t>
   </si>
   <si>
-    <t>akkku</t>
-  </si>
-  <si>
-    <t>Shiju</t>
-  </si>
-  <si>
     <t>sswww</t>
   </si>
   <si>
@@ -87,6 +81,12 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>akkku21ws</t>
+  </si>
+  <si>
+    <t>Shiju23aa</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,107 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>2323</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{2F49EEC7-69EC-4FCE-BE37-DAD784499052}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E935B4BC-E2B1-4F94-9A1F-8267FC052A1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5D1854-2789-421B-9E32-E6617BC3A87D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A33E9DF-A53E-483B-9DB3-64DEB4A64D57}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -494,66 +594,17 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{2F49EEC7-69EC-4FCE-BE37-DAD784499052}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{E935B4BC-E2B1-4F94-9A1F-8267FC052A1D}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{EC23ECD2-D95D-4FD7-BF69-5A6F2259DA8D}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E2FA8D17-C8D6-4D0D-A616-74F2232E9668}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5D1854-2789-421B-9E32-E6617BC3A87D}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A33E9DF-A53E-483B-9DB3-64DEB4A64D57}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
